--- a/Data/Wahlkreis_names.xlsx
+++ b/Data/Wahlkreis_names.xlsx
@@ -1710,15 +1710,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F300"/>
+  <dimension ref="A1:F301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="47.42578125" customWidth="1"/>
+    <col min="1" max="2" width="47.42578125" customWidth="1"/>
+    <col min="3" max="3" width="60" customWidth="1"/>
+    <col min="4" max="6" width="47.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2082,15 +2084,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" t="s">
-        <v>40</v>
-      </c>
+      <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
         <v>41</v>
       </c>
@@ -2103,13 +2097,13 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D20" t="s">
         <v>40</v>
@@ -2123,13 +2117,13 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D21" t="s">
         <v>42</v>
@@ -2143,13 +2137,13 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D22" t="s">
         <v>43</v>
@@ -2163,13 +2157,13 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D23" t="s">
         <v>44</v>
@@ -2183,13 +2177,13 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D24" t="s">
         <v>45</v>
@@ -2203,13 +2197,13 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D25" t="s">
         <v>47</v>
@@ -2223,13 +2217,13 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B26" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D26" t="s">
         <v>49</v>
@@ -2243,13 +2237,13 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C27" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D27" t="s">
         <v>50</v>
@@ -2263,13 +2257,13 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D28" t="s">
         <v>55</v>
@@ -2283,13 +2277,13 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B29" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C29" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D29" t="s">
         <v>54</v>
@@ -2303,13 +2297,13 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C30" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D30" t="s">
         <v>57</v>
@@ -2323,13 +2317,13 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C31" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D31" t="s">
         <v>59</v>
@@ -2343,13 +2337,13 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C32" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D32" t="s">
         <v>61</v>
@@ -2363,13 +2357,13 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C33" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D33" t="s">
         <v>63</v>
@@ -2383,13 +2377,13 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B34" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C34" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D34" t="s">
         <v>66</v>
@@ -2403,13 +2397,13 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C35" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D35" t="s">
         <v>68</v>
@@ -2423,13 +2417,13 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B36" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C36" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D36" t="s">
         <v>70</v>
@@ -2443,13 +2437,13 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B37" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C37" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D37" t="s">
         <v>75</v>
@@ -2463,13 +2457,13 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B38" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C38" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D38" t="s">
         <v>74</v>
@@ -2483,13 +2477,13 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B39" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D39" t="s">
         <v>78</v>
@@ -2503,13 +2497,13 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D40" t="s">
         <v>79</v>
@@ -2523,13 +2517,13 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C41" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D41" t="s">
         <v>80</v>
@@ -2543,13 +2537,13 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B42" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D42" t="s">
         <v>82</v>
@@ -2563,13 +2557,13 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B43" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C43" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D43" t="s">
         <v>83</v>
@@ -2583,13 +2577,13 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B44" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C44" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D44" t="s">
         <v>84</v>
@@ -2603,13 +2597,13 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B45" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C45" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D45" t="s">
         <v>85</v>
@@ -2623,13 +2617,13 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B46" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C46" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D46" t="s">
         <v>87</v>
@@ -2643,13 +2637,13 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B47" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C47" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D47" t="s">
         <v>89</v>
@@ -2663,13 +2657,13 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B48" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C48" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D48" t="s">
         <v>91</v>
@@ -2683,13 +2677,13 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B49" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C49" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D49" t="s">
         <v>92</v>
@@ -2703,13 +2697,13 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B50" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C50" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D50" t="s">
         <v>93</v>
@@ -2723,13 +2717,13 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B51" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C51" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D51" t="s">
         <v>95</v>
@@ -2743,13 +2737,13 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B52" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C52" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D52" t="s">
         <v>96</v>
@@ -2763,13 +2757,13 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B53" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C53" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D53" t="s">
         <v>98</v>
@@ -2783,13 +2777,13 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B54" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C54" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D54" t="s">
         <v>100</v>
@@ -2803,13 +2797,13 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B55" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C55" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D55" t="s">
         <v>101</v>
@@ -2823,13 +2817,13 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B56" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C56" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D56" t="s">
         <v>102</v>
@@ -2843,13 +2837,13 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B57" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C57" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D57" t="s">
         <v>104</v>
@@ -2863,13 +2857,13 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B58" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C58" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D58" t="s">
         <v>106</v>
@@ -2883,13 +2877,13 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B59" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C59" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D59" t="s">
         <v>108</v>
@@ -2903,13 +2897,13 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B60" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C60" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D60" t="s">
         <v>110</v>
@@ -2923,13 +2917,13 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B61" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C61" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D61" t="s">
         <v>112</v>
@@ -2943,13 +2937,13 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B62" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C62" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D62" t="s">
         <v>114</v>
@@ -2963,13 +2957,13 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B63" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C63" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D63" t="s">
         <v>116</v>
@@ -2983,13 +2977,13 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B64" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C64" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D64" t="s">
         <v>118</v>
@@ -3003,13 +2997,13 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B65" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C65" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D65" t="s">
         <v>120</v>
@@ -3023,13 +3017,13 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B66" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C66" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D66" t="s">
         <v>122</v>
@@ -3043,13 +3037,13 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B67" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C67" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D67" t="s">
         <v>124</v>
@@ -3063,13 +3057,13 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B68" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C68" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D68" t="s">
         <v>125</v>
@@ -3083,13 +3077,13 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B69" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C69" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D69" t="s">
         <v>127</v>
@@ -3103,13 +3097,13 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B70" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C70" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D70" t="s">
         <v>129</v>
@@ -3123,13 +3117,13 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B71" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C71" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D71" t="s">
         <v>130</v>
@@ -3143,13 +3137,13 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B72" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C72" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D72" t="s">
         <v>132</v>
@@ -3163,13 +3157,13 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B73" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C73" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D73" t="s">
         <v>134</v>
@@ -3183,13 +3177,13 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B74" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C74" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D74" t="s">
         <v>135</v>
@@ -3203,13 +3197,13 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B75" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C75" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D75" t="s">
         <v>138</v>
@@ -3223,13 +3217,13 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B76" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C76" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D76" t="s">
         <v>139</v>
@@ -3243,13 +3237,13 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B77" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C77" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D77" t="s">
         <v>141</v>
@@ -3263,13 +3257,13 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B78" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C78" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D78" t="s">
         <v>143</v>
@@ -3283,13 +3277,13 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B79" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C79" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D79" t="s">
         <v>144</v>
@@ -3303,13 +3297,13 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B80" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C80" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D80" t="s">
         <v>146</v>
@@ -3323,13 +3317,13 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B81" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C81" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D81" t="s">
         <v>148</v>
@@ -3343,13 +3337,13 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B82" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C82" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D82" t="s">
         <v>151</v>
@@ -3363,13 +3357,13 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B83" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C83" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D83" t="s">
         <v>153</v>
@@ -3383,13 +3377,13 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B84" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C84" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D84" t="s">
         <v>154</v>
@@ -3403,13 +3397,13 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B85" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C85" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D85" t="s">
         <v>159</v>
@@ -3423,13 +3417,13 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B86" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C86" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D86" t="s">
         <v>158</v>
@@ -3443,13 +3437,13 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B87" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C87" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D87" t="s">
         <v>162</v>
@@ -3463,13 +3457,13 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B88" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C88" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D88" t="s">
         <v>163</v>
@@ -3483,13 +3477,13 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B89" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C89" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D89" t="s">
         <v>166</v>
@@ -3503,13 +3497,13 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B90" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C90" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D90" t="s">
         <v>168</v>
@@ -3523,13 +3517,13 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B91" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C91" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D91" t="s">
         <v>167</v>
@@ -3543,13 +3537,13 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B92" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C92" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D92" t="s">
         <v>169</v>
@@ -3563,13 +3557,13 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B93" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C93" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D93" t="s">
         <v>173</v>
@@ -3583,13 +3577,13 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B94" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C94" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D94" t="s">
         <v>175</v>
@@ -3603,13 +3597,13 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B95" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C95" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D95" t="s">
         <v>174</v>
@@ -3623,13 +3617,13 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B96" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C96" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D96" t="s">
         <v>176</v>
@@ -3643,13 +3637,13 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B97" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C97" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D97" t="s">
         <v>177</v>
@@ -3663,13 +3657,13 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B98" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C98" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D98" t="s">
         <v>178</v>
@@ -3683,13 +3677,13 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B99" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C99" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D99" t="s">
         <v>179</v>
@@ -3703,13 +3697,13 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B100" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C100" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D100" t="s">
         <v>180</v>
@@ -3723,13 +3717,13 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B101" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C101" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D101" t="s">
         <v>181</v>
@@ -3743,13 +3737,13 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B102" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C102" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D102" t="s">
         <v>182</v>
@@ -3763,13 +3757,13 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B103" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C103" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D103" t="s">
         <v>184</v>
@@ -3783,13 +3777,13 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B104" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C104" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D104" t="s">
         <v>185</v>
@@ -3803,13 +3797,13 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B105" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C105" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D105" t="s">
         <v>187</v>
@@ -3823,13 +3817,13 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B106" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C106" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D106" t="s">
         <v>188</v>
@@ -3843,13 +3837,13 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B107" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C107" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D107" t="s">
         <v>189</v>
@@ -3863,13 +3857,13 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B108" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C108" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D108" t="s">
         <v>190</v>
@@ -3883,13 +3877,13 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B109" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C109" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D109" t="s">
         <v>191</v>
@@ -3903,13 +3897,13 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B110" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C110" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D110" t="s">
         <v>192</v>
@@ -3923,13 +3917,13 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B111" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C111" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D111" t="s">
         <v>193</v>
@@ -3943,13 +3937,13 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B112" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C112" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D112" t="s">
         <v>195</v>
@@ -3963,13 +3957,13 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B113" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C113" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D113" t="s">
         <v>196</v>
@@ -3983,13 +3977,13 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B114" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C114" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D114" t="s">
         <v>197</v>
@@ -4003,13 +3997,13 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B115" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C115" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D115" t="s">
         <v>198</v>
@@ -4023,13 +4017,13 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B116" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C116" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D116" t="s">
         <v>200</v>
@@ -4043,13 +4037,13 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B117" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C117" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D117" t="s">
         <v>201</v>
@@ -4063,13 +4057,13 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B118" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C118" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D118" t="s">
         <v>202</v>
@@ -4083,13 +4077,13 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B119" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C119" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D119" t="s">
         <v>204</v>
@@ -4103,13 +4097,13 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B120" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C120" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D120" t="s">
         <v>206</v>
@@ -4123,13 +4117,13 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B121" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C121" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D121" t="s">
         <v>207</v>
@@ -4143,13 +4137,13 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B122" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C122" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D122" t="s">
         <v>208</v>
@@ -4163,13 +4157,13 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B123" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C123" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D123" t="s">
         <v>209</v>
@@ -4183,13 +4177,13 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B124" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C124" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D124" t="s">
         <v>210</v>
@@ -4203,13 +4197,13 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B125" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C125" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D125" t="s">
         <v>211</v>
@@ -4223,13 +4217,13 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B126" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C126" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D126" t="s">
         <v>213</v>
@@ -4243,13 +4237,13 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B127" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C127" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D127" t="s">
         <v>215</v>
@@ -4263,13 +4257,13 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B128" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C128" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D128" t="s">
         <v>216</v>
@@ -4283,13 +4277,13 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B129" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C129" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D129" t="s">
         <v>218</v>
@@ -4303,13 +4297,13 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B130" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C130" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D130" t="s">
         <v>219</v>
@@ -4323,13 +4317,13 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B131" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C131" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D131" t="s">
         <v>220</v>
@@ -4343,13 +4337,13 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B132" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C132" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D132" t="s">
         <v>221</v>
@@ -4363,13 +4357,13 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B133" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C133" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D133" t="s">
         <v>225</v>
@@ -4383,13 +4377,13 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B134" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C134" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D134" t="s">
         <v>228</v>
@@ -4403,13 +4397,13 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B135" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C135" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D135" t="s">
         <v>227</v>
@@ -4423,13 +4417,13 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B136" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C136" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D136" t="s">
         <v>229</v>
@@ -4443,13 +4437,13 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B137" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C137" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D137" t="s">
         <v>230</v>
@@ -4463,13 +4457,13 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B138" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C138" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D138" t="s">
         <v>233</v>
@@ -4483,13 +4477,13 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B139" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C139" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D139" t="s">
         <v>234</v>
@@ -4503,13 +4497,13 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B140" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C140" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D140" t="s">
         <v>238</v>
@@ -4523,13 +4517,13 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B141" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C141" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D141" t="s">
         <v>239</v>
@@ -4543,13 +4537,13 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B142" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C142" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D142" t="s">
         <v>240</v>
@@ -4563,13 +4557,13 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B143" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C143" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D143" t="s">
         <v>242</v>
@@ -4583,13 +4577,13 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B144" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C144" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D144" t="s">
         <v>243</v>
@@ -4603,13 +4597,13 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B145" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C145" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D145" t="s">
         <v>244</v>
@@ -4623,13 +4617,13 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B146" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C146" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D146" t="s">
         <v>245</v>
@@ -4643,13 +4637,13 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B147" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C147" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D147" t="s">
         <v>247</v>
@@ -4663,13 +4657,13 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B148" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C148" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D148" t="s">
         <v>248</v>
@@ -4683,13 +4677,13 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B149" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C149" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D149" t="s">
         <v>249</v>
@@ -4703,13 +4697,13 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B150" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C150" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D150" t="s">
         <v>250</v>
@@ -4723,13 +4717,13 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B151" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C151" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D151" t="s">
         <v>252</v>
@@ -4743,13 +4737,13 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B152" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C152" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D152" t="s">
         <v>253</v>
@@ -4763,13 +4757,13 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B153" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C153" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D153" t="s">
         <v>254</v>
@@ -4783,13 +4777,13 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B154" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C154" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D154" t="s">
         <v>255</v>
@@ -4803,13 +4797,13 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B155" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C155" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D155" t="s">
         <v>257</v>
@@ -4823,13 +4817,13 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B156" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C156" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D156" t="s">
         <v>258</v>
@@ -4843,13 +4837,13 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B157" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C157" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D157" t="s">
         <v>259</v>
@@ -4863,13 +4857,13 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B158" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C158" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D158" t="s">
         <v>262</v>
@@ -4883,13 +4877,13 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B159" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C159" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D159" t="s">
         <v>264</v>
@@ -4903,13 +4897,13 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B160" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C160" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D160" t="s">
         <v>267</v>
@@ -4923,13 +4917,13 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B161" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C161" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D161" t="s">
         <v>269</v>
@@ -4943,13 +4937,13 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B162" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C162" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D162" t="s">
         <v>272</v>
@@ -4963,13 +4957,13 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B163" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C163" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D163" t="s">
         <v>273</v>
@@ -4983,13 +4977,13 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B164" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C164" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D164" t="s">
         <v>275</v>
@@ -5003,13 +4997,13 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B165" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C165" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D165" t="s">
         <v>278</v>
@@ -5023,13 +5017,13 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B166" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C166" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D166" t="s">
         <v>280</v>
@@ -5043,13 +5037,13 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B167" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C167" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D167" t="s">
         <v>281</v>
@@ -5063,13 +5057,13 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B168" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C168" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D168" t="s">
         <v>283</v>
@@ -5083,13 +5077,13 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B169" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C169" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D169" t="s">
         <v>285</v>
@@ -5103,13 +5097,13 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B170" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C170" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D170" t="s">
         <v>287</v>
@@ -5123,13 +5117,13 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B171" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C171" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D171" t="s">
         <v>290</v>
@@ -5143,13 +5137,13 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B172" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C172" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D172" t="s">
         <v>291</v>
@@ -5163,13 +5157,13 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B173" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C173" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D173" t="s">
         <v>292</v>
@@ -5183,13 +5177,13 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B174" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C174" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D174" t="s">
         <v>294</v>
@@ -5203,13 +5197,13 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B175" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C175" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D175" t="s">
         <v>295</v>
@@ -5223,13 +5217,13 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B176" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C176" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D176" t="s">
         <v>296</v>
@@ -5243,2481 +5237,2492 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B177" t="s">
-        <v>299</v>
-      </c>
-      <c r="C177" t="s">
-        <v>299</v>
-      </c>
-      <c r="D177" t="s">
-        <v>299</v>
-      </c>
-      <c r="E177" t="s">
-        <v>296</v>
-      </c>
-      <c r="F177" t="s">
-        <v>296</v>
+        <v>297</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B178" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C178" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D178" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E178" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F178" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B179" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C179" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D179" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E179" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F179" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B180" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C180" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D180" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E180" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F180" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B181" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C181" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D181" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E181" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F181" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B182" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C182" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D182" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E182" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F182" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B183" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C183" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D183" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E183" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F183" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B184" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C184" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D184" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E184" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F184" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B185" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C185" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D185" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E185" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F185" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B186" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C186" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D186" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E186" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F186" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B187" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C187" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D187" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E187" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F187" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B188" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C188" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D188" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E188" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F188" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B189" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C189" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D189" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E189" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F189" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B190" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C190" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D190" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E190" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F190" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B191" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C191" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D191" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E191" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F191" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B192" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C192" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D192" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E192" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F192" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B193" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C193" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D193" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E193" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F193" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B194" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C194" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D194" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="E194" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F194" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B195" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C195" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D195" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E195" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="F195" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B196" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C196" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D196" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E196" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F196" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B197" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C197" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D197" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="E197" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F197" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B198" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C198" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D198" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E198" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F198" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B199" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C199" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D199" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E199" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F199" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B200" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C200" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D200" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E200" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F200" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B201" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C201" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D201" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E201" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F201" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B202" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C202" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D202" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E202" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F202" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B203" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C203" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D203" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E203" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F203" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B204" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C204" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D204" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E204" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F204" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B205" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C205" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D205" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E205" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F205" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B206" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C206" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D206" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E206" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F206" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B207" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C207" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D207" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E207" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F207" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B208" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C208" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D208" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E208" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F208" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B209" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C209" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D209" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E209" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F209" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B210" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C210" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D210" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E210" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F210" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B211" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C211" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D211" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E211" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="F211" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B212" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C212" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D212" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E212" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F212" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B213" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C213" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D213" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E213" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F213" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B214" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C214" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D214" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E214" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F214" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B215" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C215" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D215" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E215" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F215" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B216" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C216" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D216" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E216" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F216" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B217" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C217" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D217" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E217" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F217" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B218" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C218" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D218" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E218" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F218" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B219" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C219" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D219" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E219" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F219" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B220" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C220" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D220" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E220" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F220" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B221" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C221" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D221" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E221" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F221" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B222" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C222" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D222" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E222" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F222" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B223" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C223" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D223" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E223" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F223" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B224" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C224" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D224" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E224" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F224" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B225" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C225" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D225" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E225" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F225" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B226" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C226" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D226" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E226" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F226" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B227" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C227" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D227" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E227" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F227" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B228" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C228" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D228" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E228" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F228" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B229" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C229" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D229" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E229" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F229" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B230" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C230" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D230" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E230" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F230" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B231" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C231" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D231" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E231" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F231" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B232" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C232" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D232" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E232" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F232" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B233" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C233" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D233" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E233" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F233" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B234" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C234" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D234" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E234" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F234" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B235" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C235" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D235" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E235" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F235" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B236" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C236" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D236" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E236" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F236" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B237" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C237" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D237" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E237" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F237" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B238" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C238" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D238" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E238" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F238" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B239" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C239" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D239" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E239" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F239" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B240" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C240" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D240" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E240" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F240" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B241" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C241" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D241" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E241" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F241" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B242" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C242" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D242" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E242" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F242" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B243" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C243" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D243" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E243" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F243" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B244" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C244" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D244" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E244" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F244" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B245" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C245" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D245" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E245" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F245" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B246" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C246" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D246" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E246" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F246" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B247" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C247" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D247" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E247" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F247" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B248" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C248" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D248" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E248" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F248" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B249" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C249" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D249" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E249" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F249" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B250" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C250" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D250" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E250" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F250" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B251" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C251" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D251" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E251" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F251" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B252" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C252" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D252" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E252" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F252" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B253" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C253" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D253" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E253" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F253" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B254" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C254" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D254" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E254" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F254" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B255" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C255" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D255" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E255" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F255" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B256" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C256" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D256" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E256" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F256" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B257" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C257" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D257" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E257" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F257" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B258" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C258" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D258" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E258" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F258" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B259" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C259" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D259" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E259" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F259" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B260" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C260" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D260" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E260" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F260" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B261" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C261" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D261" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E261" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F261" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B262" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C262" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D262" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E262" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F262" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B263" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C263" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D263" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E263" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F263" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B264" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C264" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D264" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E264" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F264" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B265" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C265" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D265" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E265" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F265" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B266" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C266" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D266" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E266" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F266" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B267" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C267" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D267" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E267" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F267" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B268" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C268" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D268" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E268" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F268" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B269" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C269" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D269" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E269" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F269" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B270" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C270" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D270" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E270" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F270" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B271" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C271" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D271" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E271" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F271" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B272" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C272" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D272" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E272" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F272" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B273" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C273" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D273" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E273" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F273" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B274" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C274" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D274" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E274" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F274" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B275" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C275" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D275" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E275" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F275" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B276" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C276" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D276" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E276" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F276" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B277" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C277" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D277" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E277" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F277" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B278" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C278" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D278" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E278" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F278" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B279" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C279" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D279" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E279" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F279" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B280" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C280" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D280" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E280" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F280" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B281" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C281" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D281" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E281" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F281" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B282" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C282" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D282" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E282" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F282" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B283" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C283" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D283" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E283" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F283" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B284" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C284" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D284" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E284" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F284" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B285" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C285" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D285" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E285" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F285" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B286" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C286" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D286" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E286" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F286" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B287" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C287" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D287" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E287" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F287" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B288" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C288" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D288" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E288" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F288" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B289" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C289" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D289" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E289" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F289" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B290" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C290" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D290" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E290" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F290" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B291" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C291" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D291" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E291" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F291" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B292" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C292" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D292" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E292" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F292" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B293" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C293" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D293" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E293" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F293" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B294" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C294" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D294" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E294" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F294" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B295" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C295" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D295" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E295" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="F295" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B296" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C296" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="D296" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="E296" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F296" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B297" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C297" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D297" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E297" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F297" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B298" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C298" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D298" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E298" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F298" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B299" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C299" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D299" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E299" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F299" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
+        <v>451</v>
+      </c>
+      <c r="B300" t="s">
+        <v>451</v>
+      </c>
+      <c r="C300" t="s">
+        <v>451</v>
+      </c>
+      <c r="D300" t="s">
+        <v>451</v>
+      </c>
+      <c r="E300" t="s">
+        <v>451</v>
+      </c>
+      <c r="F300" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
         <v>453</v>
       </c>
-      <c r="B300" t="s">
+      <c r="B301" t="s">
         <v>453</v>
       </c>
-      <c r="C300" t="s">
+      <c r="C301" t="s">
         <v>453</v>
       </c>
-      <c r="D300" t="s">
+      <c r="D301" t="s">
         <v>453</v>
       </c>
-      <c r="E300" t="s">
+      <c r="E301" t="s">
         <v>453</v>
       </c>
-      <c r="F300" t="s">
+      <c r="F301" t="s">
         <v>453</v>
       </c>
     </row>
